--- a/Result/Q0_1_rmse_per_step_N100.xlsx
+++ b/Result/Q0_1_rmse_per_step_N100.xlsx
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2514883748892742</v>
+        <v>0.3261034857619763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2068251760608832</v>
+        <v>0.243030178375617</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1850979926174969</v>
+        <v>0.2397051667750451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2467822595727016</v>
+        <v>0.2709087044205554</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2338945573979333</v>
+        <v>0.3162395372067596</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5159710952732962</v>
+        <v>0.3232729761283314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5012114822852262</v>
+        <v>0.3197938865696847</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5216417588136119</v>
+        <v>0.3190361464299166</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4754301199678868</v>
+        <v>0.3169643890488516</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5019269966661546</v>
+        <v>0.3224798355392302</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9652138384320847</v>
+        <v>0.5658004378415536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9099508498382929</v>
+        <v>0.5635061698764284</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7679282520195861</v>
+        <v>0.5548232918663109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7156088766577369</v>
+        <v>0.5646865496711623</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9256980257234044</v>
+        <v>0.5567449365626952</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1323196351885075</v>
+        <v>0.3358515787444402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2056532652043685</v>
+        <v>0.3058208845870046</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2192194478451294</v>
+        <v>0.3072502434509106</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1353335899363675</v>
+        <v>0.3373465370428896</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1888921952148599</v>
+        <v>0.3195681374063638</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04784798524385623</v>
+        <v>0.1749926333983698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06453016782932673</v>
+        <v>0.1751601255498974</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06061632841962822</v>
+        <v>0.1737744568751214</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05907817260680616</v>
+        <v>0.1807096908304174</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04224564615080979</v>
+        <v>0.1778659313179481</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3769781561438345</v>
+        <v>0.1861370261919635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3984144790591962</v>
+        <v>0.18776839073392</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3718373229384428</v>
+        <v>0.1889289762200198</v>
       </c>
       <c r="E7" t="n">
-        <v>0.386244030301936</v>
+        <v>0.1943888231421522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4226483054238588</v>
+        <v>0.1888755855320185</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06854144441630994</v>
+        <v>0.2939668116500341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08892226852199087</v>
+        <v>0.2885816419974012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09443375356680705</v>
+        <v>0.2883531684413886</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07208350549544372</v>
+        <v>0.2945729018876541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08917617166937866</v>
+        <v>0.2898969659921938</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2186111187613118</v>
+        <v>0.3566482727704394</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2501123268322045</v>
+        <v>0.3528246559434955</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2351294592657898</v>
+        <v>0.3504559597833056</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2212021090220679</v>
+        <v>0.3525724158899619</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1493105020378653</v>
+        <v>0.350666115874779</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2.603506275091648</v>
+        <v>3.154235020246765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5431281423210376</v>
+        <v>3.238948591953855</v>
       </c>
       <c r="D10" t="n">
-        <v>10.13650620474057</v>
+        <v>5.411637049224113</v>
       </c>
       <c r="E10" t="n">
-        <v>2.333810541493594</v>
+        <v>3.093883468439806</v>
       </c>
       <c r="F10" t="n">
-        <v>1.495482092835823</v>
+        <v>2.9904702750185</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5026066715068768</v>
+        <v>1.919568023105836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1786287981653339</v>
+        <v>6.767045353952811</v>
       </c>
       <c r="D11" t="n">
-        <v>6.938271574478366</v>
+        <v>8.618061562700611</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3439847317114852</v>
+        <v>1.500521064435765</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3294928017043761</v>
+        <v>2.181754212755039</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.575037353066963</v>
+        <v>3.229092732268141</v>
       </c>
       <c r="C12" t="n">
-        <v>2.842878340283112</v>
+        <v>7.083519229163552</v>
       </c>
       <c r="D12" t="n">
-        <v>9.632402298257047</v>
+        <v>9.188297999309597</v>
       </c>
       <c r="E12" t="n">
-        <v>1.88232689535239</v>
+        <v>2.25545278065088</v>
       </c>
       <c r="F12" t="n">
-        <v>1.371109793094583</v>
+        <v>2.951562172636172</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3266075395227988</v>
+        <v>3.193921748679097</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2064092822949652</v>
+        <v>4.815331940341147</v>
       </c>
       <c r="D13" t="n">
-        <v>11.78292183662721</v>
+        <v>7.89056155765693</v>
       </c>
       <c r="E13" t="n">
-        <v>1.785179319049497</v>
+        <v>2.327060973168464</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2313273966809474</v>
+        <v>3.018754156603732</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04851430790225363</v>
+        <v>2.28833571022367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06195220274547954</v>
+        <v>2.761949679744132</v>
       </c>
       <c r="D14" t="n">
-        <v>8.809332221438261</v>
+        <v>4.862260487882537</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09227553290685322</v>
+        <v>1.287377888715331</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08578785564559767</v>
+        <v>2.240549219579185</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2220886537960361</v>
+        <v>1.378715141482394</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2226264901183187</v>
+        <v>1.304786706184724</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3049215590063197</v>
+        <v>1.414198740831327</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2280260915450734</v>
+        <v>0.5078726298089584</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2124761291346956</v>
+        <v>1.772873007894199</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4047289639036638</v>
+        <v>1.044772904592173</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3593542857341154</v>
+        <v>1.093194989017229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3860182081926509</v>
+        <v>1.328310757421718</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4305999628382348</v>
+        <v>0.3297490460935945</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3674768257949655</v>
+        <v>1.230988019121287</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7183808313599165</v>
+        <v>1.181671489014789</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4627797178200035</v>
+        <v>1.209074340366383</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5414888261810875</v>
+        <v>1.515865159352975</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6901584035228155</v>
+        <v>0.4970161277174547</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6306184962489112</v>
+        <v>1.42568859410532</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1754413157670322</v>
+        <v>3.187803590501155</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1561023835121514</v>
+        <v>3.261011522777659</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1499249571132163</v>
+        <v>3.82227105046149</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1723278226756568</v>
+        <v>2.461522997925464</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1036868531400974</v>
+        <v>3.230282506221333</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1530969319654649</v>
+        <v>1.964069917977305</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1537403716072176</v>
+        <v>7.849188020652375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1738851291116212</v>
+        <v>3.543378532524112</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1526426554161098</v>
+        <v>1.07056388222961</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1565874479047551</v>
+        <v>2.214536865339679</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05826171737966137</v>
+        <v>2.115183240364693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08639497201537494</v>
+        <v>2.992906541313922</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07172685384278153</v>
+        <v>3.394388705742865</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1223271378089806</v>
+        <v>0.8856862451610508</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07120594185247138</v>
+        <v>1.420909471223743</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3183126697326505</v>
+        <v>1.946908961603379</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3495955219770271</v>
+        <v>2.376770978476597</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3476890905322976</v>
+        <v>3.576182446863533</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3029949900338463</v>
+        <v>1.021263833926735</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3408982354683668</v>
+        <v>1.476015803893546</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +870,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1476042878203579</v>
+        <v>1.769157621931493</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09744618319175552</v>
+        <v>1.658431880526133</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1493165551773463</v>
+        <v>2.466837078258214</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1220638410288921</v>
+        <v>0.8400057109155966</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1181968894089762</v>
+        <v>1.247468616138145</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +890,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4237755768939381</v>
+        <v>1.02704094163584</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4260823263064629</v>
+        <v>1.586888561394221</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3952924121493037</v>
+        <v>1.145207484926964</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4527992290154857</v>
+        <v>0.5792192485370049</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4543821210246808</v>
+        <v>0.9086233982328338</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +910,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2441924839184756</v>
+        <v>0.7722772273830389</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2054204289975845</v>
+        <v>0.9916506848751396</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2477182942923058</v>
+        <v>0.8062299114408407</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2272482408862052</v>
+        <v>0.3291885102552143</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2154873483211343</v>
+        <v>0.7421043581309374</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +930,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3196109975239599</v>
+        <v>1.19129960413473</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4344292999058631</v>
+        <v>1.490892453113054</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3272159970250871</v>
+        <v>1.396711670072865</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2853977664827512</v>
+        <v>0.7511028164755867</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2715659757190036</v>
+        <v>1.237735828165992</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +950,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04549196615271772</v>
+        <v>1.355341133107103</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08708225463886229</v>
+        <v>1.5469119885493</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06797176550283344</v>
+        <v>1.329054084148563</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07065321947893909</v>
+        <v>0.9502054106684943</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0742080978736499</v>
+        <v>1.333285991611034</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +970,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06434472298379507</v>
+        <v>1.06348395731769</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1220566940484743</v>
+        <v>0.8645086690985538</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1074937102040759</v>
+        <v>0.7318517274061689</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1454343392810988</v>
+        <v>0.1707042661150397</v>
       </c>
       <c r="F27" t="n">
-        <v>0.135963227089583</v>
+        <v>0.8350073455117364</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +990,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06099315451887565</v>
+        <v>0.4266599106173817</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04341317547454968</v>
+        <v>0.2698852360704688</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03635443665199009</v>
+        <v>0.2729527135593814</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07914486501884752</v>
+        <v>0.221809650285012</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02005120606845581</v>
+        <v>0.2679269670655622</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +1010,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1154224680891212</v>
+        <v>0.3151984712023083</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1186708816491899</v>
+        <v>0.3062798415753341</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1238807324516842</v>
+        <v>0.3086545195162099</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09920101987592286</v>
+        <v>0.3170397857342497</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07998368732080578</v>
+        <v>0.3121119286065119</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1030,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.248356912852786</v>
+        <v>0.4218921298032113</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2973515309547421</v>
+        <v>0.4209002747262663</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3373553015186502</v>
+        <v>0.4199387128855186</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3278556873480281</v>
+        <v>0.4205470161098318</v>
       </c>
       <c r="F30" t="n">
-        <v>0.351370583696418</v>
+        <v>0.4207755065948413</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1050,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>5.483736564208726</v>
+        <v>7.314205144227242</v>
       </c>
       <c r="C31" t="n">
-        <v>6.907905057704459</v>
+        <v>7.807287954220884</v>
       </c>
       <c r="D31" t="n">
-        <v>5.496225228080641</v>
+        <v>8.512071123578025</v>
       </c>
       <c r="E31" t="n">
-        <v>6.260783082858336</v>
+        <v>7.138985902516953</v>
       </c>
       <c r="F31" t="n">
-        <v>6.410813685573238</v>
+        <v>7.364243871726367</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1070,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2283098589289497</v>
+        <v>1.551345961041217</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233278423602534</v>
+        <v>4.848629804664427</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9710968764544046</v>
+        <v>7.972303307926865</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2586941912395636</v>
+        <v>0.9434156349153564</v>
       </c>
       <c r="F32" t="n">
-        <v>0.222694161732643</v>
+        <v>2.035213535232674</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1090,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1.644946067907929</v>
+        <v>3.069210981681193</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4755162683495409</v>
+        <v>6.279129782715999</v>
       </c>
       <c r="D33" t="n">
-        <v>6.153599690434189</v>
+        <v>7.790773791724697</v>
       </c>
       <c r="E33" t="n">
-        <v>1.194831723409441</v>
+        <v>2.077314928221571</v>
       </c>
       <c r="F33" t="n">
-        <v>1.444901635305873</v>
+        <v>3.21572910487546</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1110,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5624368306739447</v>
+        <v>2.558923541324481</v>
       </c>
       <c r="C34" t="n">
-        <v>0.102061355435633</v>
+        <v>4.778386142643486</v>
       </c>
       <c r="D34" t="n">
-        <v>0.853482894371403</v>
+        <v>9.947977003395966</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6771273941628001</v>
+        <v>1.4304952060379</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1142821531561859</v>
+        <v>2.503079517765578</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1130,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3342384272134199</v>
+        <v>2.529115865394683</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3052777854009079</v>
+        <v>3.028003198226061</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3977526833764795</v>
+        <v>6.374864554986262</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3148193483153592</v>
+        <v>0.9359545323855706</v>
       </c>
       <c r="F35" t="n">
-        <v>0.33569642390316</v>
+        <v>1.983932759380312</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1150,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1946122004405595</v>
+        <v>1.090225829284548</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1850399281821297</v>
+        <v>1.49504904321178</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3736689451623227</v>
+        <v>2.05143696556631</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1656923610051392</v>
+        <v>0.6180877600758687</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2827709289044067</v>
+        <v>0.4957327058053378</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1170,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3631303459456073</v>
+        <v>0.8191447270400878</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3468952023875009</v>
+        <v>1.229876137841317</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4421369509816043</v>
+        <v>2.056967280439834</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3956676863660689</v>
+        <v>0.7405593640534561</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4471479275348784</v>
+        <v>0.3253025653670724</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1190,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5268376100821431</v>
+        <v>0.92428824023914</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4817130751392641</v>
+        <v>1.6500874192732</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7465166671786889</v>
+        <v>2.055036829036514</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5390862934386506</v>
+        <v>1.024441899799652</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6428885776335627</v>
+        <v>0.5231740321687353</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.402679339149872</v>
+        <v>1.780182307651393</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4374782667759506</v>
+        <v>2.053844181131203</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4805573628919733</v>
+        <v>3.23826710021921</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4874197003684639</v>
+        <v>1.634656297900487</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5111154465075116</v>
+        <v>1.471983362015202</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1230,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1153952538766737</v>
+        <v>1.209632877285357</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1411185308192264</v>
+        <v>1.901340223136314</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1397576993669726</v>
+        <v>2.601620790774532</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1736127882690091</v>
+        <v>1.074439994771718</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1745212270250057</v>
+        <v>1.381143368108032</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1250,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2067090227304063</v>
+        <v>1.710426716116909</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2227650743618223</v>
+        <v>2.230671067125217</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2228083931089133</v>
+        <v>2.509151605480356</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1777810832761286</v>
+        <v>0.6542362018282093</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2294547493530849</v>
+        <v>1.190381315515923</v>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1270,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0760216351508361</v>
+        <v>1.460094962590408</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1188302754686459</v>
+        <v>2.490914313099457</v>
       </c>
       <c r="D42" t="n">
-        <v>0.105910918523091</v>
+        <v>2.867964759727224</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09664980187072064</v>
+        <v>0.7028698910913062</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08929848221112255</v>
+        <v>1.196302356177392</v>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1290,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2443146531123196</v>
+        <v>1.285821559694853</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2055660459031873</v>
+        <v>1.894565078298469</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2085727719272492</v>
+        <v>2.151992793183939</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2673659951113496</v>
+        <v>0.7469723045746671</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2408292683919515</v>
+        <v>1.013491814352964</v>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1310,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2478858993859362</v>
+        <v>1.439020348163232</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2336665321475364</v>
+        <v>1.562523055280578</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2067960377346071</v>
+        <v>2.760221194604273</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2026539492178459</v>
+        <v>1.186356296300017</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1930061221840058</v>
+        <v>1.229145725741921</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1330,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3962305985493041</v>
+        <v>2.110649172935283</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3604774131746739</v>
+        <v>3.403436765680962</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3670243518991356</v>
+        <v>3.136308775496404</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3780388288969557</v>
+        <v>1.386642713935347</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3525350909124734</v>
+        <v>2.041562854947156</v>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1350,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6217111157919594</v>
+        <v>2.402475354639948</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5579053880905644</v>
+        <v>3.520670050827245</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6357048301611172</v>
+        <v>4.519369046353051</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6860493742853918</v>
+        <v>1.972456525540246</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5272832005327569</v>
+        <v>2.819138279626154</v>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1370,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0827065537782164</v>
+        <v>2.560396598896622</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06256973313089746</v>
+        <v>3.243578282142921</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08159314460717969</v>
+        <v>4.240279013526639</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07292036513258879</v>
+        <v>2.210499931096527</v>
       </c>
       <c r="F47" t="n">
-        <v>0.070438983291308</v>
+        <v>2.587101510735173</v>
       </c>
     </row>
     <row r="48">
@@ -1390,19 +1390,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1481702750903881</v>
+        <v>1.971656597495257</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1578305453814641</v>
+        <v>1.797744619686098</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1292891672460287</v>
+        <v>2.380506723355575</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1091975988119592</v>
+        <v>1.424947612123111</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1557036281486139</v>
+        <v>2.03525402449212</v>
       </c>
     </row>
     <row r="49">
@@ -1410,19 +1410,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2814354816579627</v>
+        <v>0.4405568841431946</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2781919439862371</v>
+        <v>0.565351897615867</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2444823536031961</v>
+        <v>0.5890061081938119</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3007681745284091</v>
+        <v>0.3688107323145029</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2629858329211742</v>
+        <v>0.5112360748435018</v>
       </c>
     </row>
     <row r="50">
@@ -1430,19 +1430,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01968320513758354</v>
+        <v>0.3385284842835602</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06076065763639617</v>
+        <v>0.9485798483618457</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03875506790059267</v>
+        <v>0.948640530795993</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06618042605067212</v>
+        <v>0.3264349138182539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06640743314242163</v>
+        <v>0.3500668940526634</v>
       </c>
     </row>
     <row r="51">
@@ -1450,19 +1450,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3475997126341299</v>
+        <v>0.5017422279607024</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3298122669880547</v>
+        <v>0.8406342554511057</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3309825828961727</v>
+        <v>0.8372143548030799</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3481391641747783</v>
+        <v>0.4996126314225639</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3445138722632097</v>
+        <v>0.5097640845270763</v>
       </c>
     </row>
   </sheetData>
